--- a/CheerBoard.xlsx
+++ b/CheerBoard.xlsx
@@ -14,7 +14,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="erRJNH+4yCfTeEgUPIFho5igyTXdU5nTqW5hdwc9u2M="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="7JkNIjhmaNgU3FygZ+Dzw81aCPRAU9UVDPnLfocgeCc="/>
     </ext>
   </extLst>
 </workbook>
@@ -819,6 +819,14 @@
 Capital cheer (C2) 2018</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B82">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAlQzsbD0
+    (2022-12-12 21:48:59)
+UBC (C2.1) - 2019</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C9">
       <text>
         <t xml:space="preserve">======
@@ -843,14 +851,6 @@
 Cheerfest (C2) 2017</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B82">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAlQzsbD0
-    (2022-12-12 21:48:59)
-UBC (C2.1) - 2019</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="C15">
       <text>
         <t xml:space="preserve">======
@@ -893,6 +893,14 @@
 UBC (C2) 2018</t>
       </text>
     </comment>
+    <comment authorId="0" ref="C46">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAlQzsbC0
+    (2022-12-12 21:48:59)
+CF SP (A2) 2019</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C24">
       <text>
         <t xml:space="preserve">======
@@ -911,14 +919,6 @@
 ID#AAABCTqslcw
 Iago Bastos    (2023-12-13 22:44:07)
 Magic (A3NT) 2023</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C46">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAlQzsbC0
-    (2022-12-12 21:48:59)
-CF SP (A2) 2019</t>
       </text>
     </comment>
     <comment authorId="0" ref="C74">
@@ -1581,14 +1581,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgxCwRHvaNbQJXFua4kk6BsR+D22A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mizUA0p0sTp0i+sjUk0tKTPYBJrNw=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="124">
   <si>
     <t>Ginásio</t>
   </si>
@@ -1977,7 +1977,6 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1988,7 +1987,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2000,7 +1998,6 @@
       <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -2011,7 +2008,6 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font/>
   </fonts>
@@ -2113,7 +2109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2124,54 +2120,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -2179,39 +2152,20 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2461,7 +2415,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.38"/>
-    <col customWidth="1" min="2" max="3" width="12.63"/>
     <col customWidth="1" min="7" max="7" width="9.13"/>
     <col customWidth="1" min="8" max="8" width="4.63"/>
   </cols>
@@ -2484,13 +2437,13 @@
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="2">
         <v>28.0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>4.0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f t="shared" ref="D2:D102" si="1">IFERROR(IFERROR(B2+C2,B2+0),C2+0)</f>
         <v>32</v>
       </c>
@@ -2499,13 +2452,13 @@
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="2">
         <v>18.0</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>12.0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -2514,13 +2467,13 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>18.0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>11.0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -2529,13 +2482,13 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>17.0</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>8.0</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -2544,65 +2497,65 @@
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>7.0</v>
       </c>
-      <c r="C6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="6">
         <v>8.0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="2">
         <v>6.0</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>3.0</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="2">
         <v>5.0</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>3.0</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -2611,10 +2564,10 @@
       <c r="B10" s="2">
         <v>3.0</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>3.0</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2626,10 +2579,10 @@
       <c r="B11" s="2">
         <v>2.0</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>4.0</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2638,13 +2591,13 @@
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="2">
         <v>6.0</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2653,13 +2606,13 @@
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="2">
         <v>4.0</v>
       </c>
-      <c r="C13" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C13" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2671,25 +2624,25 @@
       <c r="B14" s="2">
         <v>5.0</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="2">
         <v>4.0</v>
       </c>
-      <c r="C15" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -2698,13 +2651,13 @@
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="2">
         <v>5.0</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -2716,10 +2669,10 @@
       <c r="B17" s="2">
         <v>4.0</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2731,15 +2684,15 @@
       <c r="B18" s="2">
         <v>4.0</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
@@ -2748,10 +2701,10 @@
       <c r="B19" s="2">
         <v>2.0</v>
       </c>
-      <c r="C19" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C19" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2763,10 +2716,10 @@
       <c r="B20" s="2">
         <v>2.0</v>
       </c>
-      <c r="C20" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="C20" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2775,75 +2728,75 @@
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="2">
         <v>4.0</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="2">
         <v>2.0</v>
       </c>
-      <c r="C22" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="C22" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="2">
         <v>3.0</v>
       </c>
-      <c r="C23" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>4.0</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="11">
         <v>4.0</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2855,25 +2808,25 @@
       <c r="B26" s="2">
         <v>3.0</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="2">
         <v>1.0</v>
       </c>
-      <c r="C27" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C27" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2882,75 +2835,75 @@
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="C28" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="B28" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="C29" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="B29" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="B30" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C31" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="B31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="2">
         <v>1.0</v>
       </c>
-      <c r="C32" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="C32" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D32" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2959,73 +2912,73 @@
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="B33" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="2">
         <v>3.0</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="6">
         <v>3.0</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="C36" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D36" s="8">
+      <c r="B36" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D36" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3037,10 +2990,10 @@
       <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="8">
+      <c r="C38" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3052,10 +3005,10 @@
       <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="D39" s="8">
+      <c r="C39" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3067,10 +3020,10 @@
       <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="D40" s="8">
+      <c r="C40" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3082,10 +3035,10 @@
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="D41" s="8">
+      <c r="C41" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D41" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3097,10 +3050,10 @@
       <c r="B42" s="2">
         <v>2.0</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3112,10 +3065,10 @@
       <c r="B43" s="2">
         <v>2.0</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3127,10 +3080,10 @@
       <c r="B44" s="2">
         <v>2.0</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3142,10 +3095,10 @@
       <c r="B45" s="2">
         <v>1.0</v>
       </c>
-      <c r="C45" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="C45" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D45" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3157,10 +3110,10 @@
       <c r="B46" s="2">
         <v>1.0</v>
       </c>
-      <c r="C46" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D46" s="8">
+      <c r="C46" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D46" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3172,25 +3125,25 @@
       <c r="B47" s="2">
         <v>1.0</v>
       </c>
-      <c r="C47" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="C47" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D47" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3199,28 +3152,28 @@
       <c r="A49" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C49" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D49" s="8">
+      <c r="B49" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D49" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D50" s="8">
+      <c r="C50" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D50" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3229,13 +3182,13 @@
       <c r="A51" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C51" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D51" s="8">
+      <c r="B51" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D51" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3247,10 +3200,10 @@
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D52" s="8">
+      <c r="C52" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D52" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3262,100 +3215,100 @@
       <c r="B53" s="2">
         <v>1.0</v>
       </c>
-      <c r="C53" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D53" s="8">
+      <c r="C53" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D53" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="C54" s="14" t="s">
+      <c r="B54" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D55" s="8">
+      <c r="C55" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D55" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D56" s="8">
+      <c r="C56" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D57" s="8">
+      <c r="C57" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D57" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D58" s="8">
+      <c r="C58" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D58" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="C59" s="15" t="s">
+      <c r="B59" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3367,10 +3320,10 @@
       <c r="B60" s="2">
         <v>1.0</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3382,10 +3335,10 @@
       <c r="B61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D61" s="8">
+      <c r="C61" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D61" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3397,10 +3350,10 @@
       <c r="B62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D62" s="8">
+      <c r="C62" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D62" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3412,10 +3365,10 @@
       <c r="B63" s="2">
         <v>1.0</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3427,10 +3380,10 @@
       <c r="B64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D64" s="8">
+      <c r="C64" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D64" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3442,70 +3395,70 @@
       <c r="B65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D65" s="8">
+      <c r="C65" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D65" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B66" s="2">
         <v>1.0</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D67" s="8">
+      <c r="C67" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D67" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B68" s="2">
         <v>1.0</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B69" s="2">
         <v>1.0</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3517,25 +3470,25 @@
       <c r="B70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D70" s="8">
+      <c r="C70" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D70" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D71" s="8">
+      <c r="C71" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D71" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3547,10 +3500,10 @@
       <c r="B72" s="2">
         <v>1.0</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3562,40 +3515,40 @@
       <c r="B73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D73" s="8">
+      <c r="C73" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D73" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D74" s="8">
+      <c r="C74" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D74" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D75" s="8">
+      <c r="C75" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D75" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3607,10 +3560,10 @@
       <c r="B76" s="2">
         <v>1.0</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3619,13 +3572,13 @@
       <c r="A77" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D77" s="8">
+      <c r="C77" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D77" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3634,28 +3587,28 @@
       <c r="A78" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D78" s="8">
+      <c r="C78" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D78" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D79" s="8">
+      <c r="C79" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D79" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3664,13 +3617,13 @@
       <c r="A80" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D80" s="8">
+      <c r="C80" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D80" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3679,28 +3632,28 @@
       <c r="A81" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="D81" s="8">
+      <c r="C81" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D81" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B82" s="2">
         <v>1.0</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3712,1133 +3665,1133 @@
       <c r="B83" s="2">
         <v>1.0</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C84" s="14" t="s">
+      <c r="B84" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D85" s="8">
+      <c r="C85" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D85" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C86" s="14" t="s">
+      <c r="B86" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C87" s="14" t="s">
+      <c r="B87" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C88" s="14" t="s">
+      <c r="B88" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C89" s="3">
         <v>1.0</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C90" s="3">
         <v>1.0</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D91" s="8">
+      <c r="C91" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D91" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D92" s="8">
+      <c r="C92" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D92" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D93" s="8">
+      <c r="C93" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D93" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D94" s="8">
+      <c r="C94" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D94" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D95" s="8">
+      <c r="C95" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D95" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C96" s="20" t="s">
+      <c r="B96" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="C96" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D97" s="8">
+      <c r="C97" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D97" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C98" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D98" s="8">
+      <c r="C98" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D98" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C99" s="20" t="s">
+      <c r="B99" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="C99" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B100" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C100" s="20" t="s">
+      <c r="B100" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="C100" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D101" s="8">
+      <c r="C101" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D101" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D102" s="8">
+      <c r="C102" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D102" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="22"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="15"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="21"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="22"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="15"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="22"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="15"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="22"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="15"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="22"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="15"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="22"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="15"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="22"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="15"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="21"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="22"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="15"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="21"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="22"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="15"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="21"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="22"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="21"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="22"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="15"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="21"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="22"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="15"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="22"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="15"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="21"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="22"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="15"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="21"/>
-      <c r="C117" s="21"/>
-      <c r="D117" s="22"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="15"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="21"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="22"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="15"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="22"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="15"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="21"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="22"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="21"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="22"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="15"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="21"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="22"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="15"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="21"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="22"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="15"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="21"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="15"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="21"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="22"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="15"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="21"/>
-      <c r="C126" s="21"/>
-      <c r="D126" s="22"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="22"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="15"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="21"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="22"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="15"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="21"/>
-      <c r="C129" s="21"/>
-      <c r="D129" s="22"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="15"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="21"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="22"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="15"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="22"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="15"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="21"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="22"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="15"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="22"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="15"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="21"/>
-      <c r="C134" s="21"/>
-      <c r="D134" s="22"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="15"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="21"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="22"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="15"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="21"/>
-      <c r="C136" s="21"/>
-      <c r="D136" s="22"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="15"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="22"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="15"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="22"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="15"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="22"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="15"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="21"/>
-      <c r="C140" s="21"/>
-      <c r="D140" s="22"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="15"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="22"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="15"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="22"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="15"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="22"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="15"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="22"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="15"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="21"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="22"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="15"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="22"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="15"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="22"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="15"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="22"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="15"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="21"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="22"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="15"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="21"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="22"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="15"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="21"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="22"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="15"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="21"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="22"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="15"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="21"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="22"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="15"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="21"/>
-      <c r="C154" s="21"/>
-      <c r="D154" s="22"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="15"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="21"/>
-      <c r="C155" s="21"/>
-      <c r="D155" s="22"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="15"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="22"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="15"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="21"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="22"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="15"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="21"/>
-      <c r="C158" s="21"/>
-      <c r="D158" s="22"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="15"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="21"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="22"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="15"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="22"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="15"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="21"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="22"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="15"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="21"/>
-      <c r="C162" s="21"/>
-      <c r="D162" s="22"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="15"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="21"/>
-      <c r="C163" s="21"/>
-      <c r="D163" s="22"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="15"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="21"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="22"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="15"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="21"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="22"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="15"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="21"/>
-      <c r="C166" s="21"/>
-      <c r="D166" s="22"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="15"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="21"/>
-      <c r="C167" s="21"/>
-      <c r="D167" s="22"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="15"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="21"/>
-      <c r="C168" s="21"/>
-      <c r="D168" s="22"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="15"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="21"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="22"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="15"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="21"/>
-      <c r="C170" s="21"/>
-      <c r="D170" s="22"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="15"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="21"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="22"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="15"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="21"/>
-      <c r="C172" s="21"/>
-      <c r="D172" s="22"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="15"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="21"/>
-      <c r="C173" s="21"/>
-      <c r="D173" s="22"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="15"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="21"/>
-      <c r="C174" s="21"/>
-      <c r="D174" s="22"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="15"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="21"/>
-      <c r="C175" s="21"/>
-      <c r="D175" s="22"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="15"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="21"/>
-      <c r="C176" s="21"/>
-      <c r="D176" s="22"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="15"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="21"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="22"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="15"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="21"/>
-      <c r="C178" s="21"/>
-      <c r="D178" s="22"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="15"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="21"/>
-      <c r="C179" s="21"/>
-      <c r="D179" s="22"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="15"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="21"/>
-      <c r="C180" s="21"/>
-      <c r="D180" s="22"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="15"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="21"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="22"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="15"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="21"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="22"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="15"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="21"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="22"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="15"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="21"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="22"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="15"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="21"/>
-      <c r="C185" s="21"/>
-      <c r="D185" s="22"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="15"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="21"/>
-      <c r="C186" s="21"/>
-      <c r="D186" s="22"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="15"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="21"/>
-      <c r="C187" s="21"/>
-      <c r="D187" s="22"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="15"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="21"/>
-      <c r="C188" s="21"/>
-      <c r="D188" s="22"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="15"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="21"/>
-      <c r="C189" s="21"/>
-      <c r="D189" s="22"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="15"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="21"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="22"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="15"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="22"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="15"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="21"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="22"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="15"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="21"/>
-      <c r="C193" s="21"/>
-      <c r="D193" s="22"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="15"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="21"/>
-      <c r="C194" s="21"/>
-      <c r="D194" s="22"/>
+      <c r="B194" s="14"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="15"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="21"/>
-      <c r="C195" s="21"/>
-      <c r="D195" s="22"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="15"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="21"/>
-      <c r="C196" s="21"/>
-      <c r="D196" s="22"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="15"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="21"/>
-      <c r="C197" s="21"/>
-      <c r="D197" s="22"/>
+      <c r="B197" s="14"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="15"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="21"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="22"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="15"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="21"/>
-      <c r="C199" s="21"/>
-      <c r="D199" s="22"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="15"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="21"/>
-      <c r="C200" s="21"/>
-      <c r="D200" s="22"/>
+      <c r="B200" s="14"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="15"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="21"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="22"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="15"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="21"/>
-      <c r="C202" s="21"/>
-      <c r="D202" s="22"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="15"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="21"/>
-      <c r="C203" s="21"/>
-      <c r="D203" s="22"/>
+      <c r="B203" s="14"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="15"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="21"/>
-      <c r="C204" s="21"/>
-      <c r="D204" s="22"/>
+      <c r="B204" s="14"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="15"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="21"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="22"/>
+      <c r="B205" s="14"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="15"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="21"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="22"/>
+      <c r="B206" s="14"/>
+      <c r="C206" s="14"/>
+      <c r="D206" s="15"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="21"/>
-      <c r="C207" s="21"/>
-      <c r="D207" s="22"/>
+      <c r="B207" s="14"/>
+      <c r="C207" s="14"/>
+      <c r="D207" s="15"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="21"/>
-      <c r="C208" s="21"/>
-      <c r="D208" s="22"/>
+      <c r="B208" s="14"/>
+      <c r="C208" s="14"/>
+      <c r="D208" s="15"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="21"/>
-      <c r="C209" s="21"/>
-      <c r="D209" s="22"/>
+      <c r="B209" s="14"/>
+      <c r="C209" s="14"/>
+      <c r="D209" s="15"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="21"/>
-      <c r="C210" s="21"/>
-      <c r="D210" s="22"/>
+      <c r="B210" s="14"/>
+      <c r="C210" s="14"/>
+      <c r="D210" s="15"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="21"/>
-      <c r="C211" s="21"/>
-      <c r="D211" s="22"/>
+      <c r="B211" s="14"/>
+      <c r="C211" s="14"/>
+      <c r="D211" s="15"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="21"/>
-      <c r="C212" s="21"/>
-      <c r="D212" s="22"/>
+      <c r="B212" s="14"/>
+      <c r="C212" s="14"/>
+      <c r="D212" s="15"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="21"/>
-      <c r="C213" s="21"/>
-      <c r="D213" s="22"/>
+      <c r="B213" s="14"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="15"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
-      <c r="D214" s="22"/>
+      <c r="B214" s="14"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="15"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="21"/>
-      <c r="C215" s="21"/>
-      <c r="D215" s="22"/>
+      <c r="B215" s="14"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="15"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="21"/>
-      <c r="C216" s="21"/>
-      <c r="D216" s="22"/>
+      <c r="B216" s="14"/>
+      <c r="C216" s="14"/>
+      <c r="D216" s="15"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="21"/>
-      <c r="C217" s="21"/>
-      <c r="D217" s="22"/>
+      <c r="B217" s="14"/>
+      <c r="C217" s="14"/>
+      <c r="D217" s="15"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="21"/>
-      <c r="C218" s="21"/>
-      <c r="D218" s="22"/>
+      <c r="B218" s="14"/>
+      <c r="C218" s="14"/>
+      <c r="D218" s="15"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="21"/>
-      <c r="C219" s="21"/>
-      <c r="D219" s="22"/>
+      <c r="B219" s="14"/>
+      <c r="C219" s="14"/>
+      <c r="D219" s="15"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="21"/>
-      <c r="C220" s="21"/>
-      <c r="D220" s="22"/>
+      <c r="B220" s="14"/>
+      <c r="C220" s="14"/>
+      <c r="D220" s="15"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="B221" s="21"/>
-      <c r="C221" s="21"/>
-      <c r="D221" s="22"/>
+      <c r="B221" s="14"/>
+      <c r="C221" s="14"/>
+      <c r="D221" s="15"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="B222" s="21"/>
-      <c r="C222" s="21"/>
-      <c r="D222" s="22"/>
+      <c r="B222" s="14"/>
+      <c r="C222" s="14"/>
+      <c r="D222" s="15"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="B223" s="21"/>
-      <c r="C223" s="21"/>
-      <c r="D223" s="22"/>
+      <c r="B223" s="14"/>
+      <c r="C223" s="14"/>
+      <c r="D223" s="15"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="B224" s="21"/>
-      <c r="C224" s="21"/>
-      <c r="D224" s="22"/>
+      <c r="B224" s="14"/>
+      <c r="C224" s="14"/>
+      <c r="D224" s="15"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="B225" s="21"/>
-      <c r="C225" s="21"/>
-      <c r="D225" s="22"/>
+      <c r="B225" s="14"/>
+      <c r="C225" s="14"/>
+      <c r="D225" s="15"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="B226" s="21"/>
-      <c r="C226" s="21"/>
-      <c r="D226" s="22"/>
+      <c r="B226" s="14"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="15"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="B227" s="21"/>
-      <c r="C227" s="21"/>
-      <c r="D227" s="22"/>
+      <c r="B227" s="14"/>
+      <c r="C227" s="14"/>
+      <c r="D227" s="15"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="B228" s="21"/>
-      <c r="C228" s="21"/>
-      <c r="D228" s="22"/>
+      <c r="B228" s="14"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="15"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="B229" s="21"/>
-      <c r="C229" s="21"/>
-      <c r="D229" s="22"/>
+      <c r="B229" s="14"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="15"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="B230" s="21"/>
-      <c r="C230" s="21"/>
-      <c r="D230" s="22"/>
+      <c r="B230" s="14"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="15"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="B231" s="21"/>
-      <c r="C231" s="21"/>
-      <c r="D231" s="22"/>
+      <c r="B231" s="14"/>
+      <c r="C231" s="14"/>
+      <c r="D231" s="15"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="B232" s="21"/>
-      <c r="C232" s="21"/>
-      <c r="D232" s="22"/>
+      <c r="B232" s="14"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="15"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="B233" s="21"/>
-      <c r="C233" s="21"/>
-      <c r="D233" s="22"/>
+      <c r="B233" s="14"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="15"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="B234" s="21"/>
-      <c r="C234" s="21"/>
-      <c r="D234" s="22"/>
+      <c r="B234" s="14"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="15"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="B235" s="21"/>
-      <c r="C235" s="21"/>
-      <c r="D235" s="22"/>
+      <c r="B235" s="14"/>
+      <c r="C235" s="14"/>
+      <c r="D235" s="15"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="B236" s="21"/>
-      <c r="C236" s="21"/>
-      <c r="D236" s="22"/>
+      <c r="B236" s="14"/>
+      <c r="C236" s="14"/>
+      <c r="D236" s="15"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="B237" s="21"/>
-      <c r="C237" s="21"/>
-      <c r="D237" s="22"/>
+      <c r="B237" s="14"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="15"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="B238" s="21"/>
-      <c r="C238" s="21"/>
-      <c r="D238" s="22"/>
+      <c r="B238" s="14"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="15"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="B239" s="21"/>
-      <c r="C239" s="21"/>
-      <c r="D239" s="22"/>
+      <c r="B239" s="14"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="15"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="B240" s="21"/>
-      <c r="C240" s="21"/>
-      <c r="D240" s="22"/>
+      <c r="B240" s="14"/>
+      <c r="C240" s="14"/>
+      <c r="D240" s="15"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="B241" s="21"/>
-      <c r="C241" s="21"/>
-      <c r="D241" s="22"/>
+      <c r="B241" s="14"/>
+      <c r="C241" s="14"/>
+      <c r="D241" s="15"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="B242" s="21"/>
-      <c r="C242" s="21"/>
-      <c r="D242" s="22"/>
+      <c r="B242" s="14"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="15"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="B243" s="21"/>
-      <c r="C243" s="21"/>
-      <c r="D243" s="22"/>
+      <c r="B243" s="14"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="15"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="B244" s="21"/>
-      <c r="C244" s="21"/>
-      <c r="D244" s="22"/>
+      <c r="B244" s="14"/>
+      <c r="C244" s="14"/>
+      <c r="D244" s="15"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="B245" s="21"/>
-      <c r="C245" s="21"/>
-      <c r="D245" s="22"/>
+      <c r="B245" s="14"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="15"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="B246" s="21"/>
-      <c r="C246" s="21"/>
-      <c r="D246" s="22"/>
+      <c r="B246" s="14"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="15"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="B247" s="21"/>
-      <c r="C247" s="21"/>
-      <c r="D247" s="22"/>
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="15"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="B248" s="21"/>
-      <c r="C248" s="21"/>
-      <c r="D248" s="22"/>
+      <c r="B248" s="14"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="15"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="B249" s="21"/>
-      <c r="C249" s="21"/>
-      <c r="D249" s="22"/>
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="15"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="B250" s="21"/>
-      <c r="C250" s="21"/>
-      <c r="D250" s="22"/>
+      <c r="B250" s="14"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="15"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="B251" s="21"/>
-      <c r="C251" s="21"/>
-      <c r="D251" s="22"/>
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="15"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="B252" s="21"/>
-      <c r="C252" s="21"/>
-      <c r="D252" s="22"/>
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="15"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="B253" s="21"/>
-      <c r="C253" s="21"/>
-      <c r="D253" s="22"/>
+      <c r="B253" s="14"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="15"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="B254" s="21"/>
-      <c r="C254" s="21"/>
-      <c r="D254" s="22"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="15"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="B255" s="21"/>
-      <c r="C255" s="21"/>
-      <c r="D255" s="22"/>
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="15"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="B256" s="21"/>
-      <c r="C256" s="21"/>
-      <c r="D256" s="22"/>
+      <c r="B256" s="14"/>
+      <c r="C256" s="14"/>
+      <c r="D256" s="15"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="B257" s="21"/>
-      <c r="C257" s="21"/>
-      <c r="D257" s="22"/>
+      <c r="B257" s="14"/>
+      <c r="C257" s="14"/>
+      <c r="D257" s="15"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="B258" s="21"/>
-      <c r="C258" s="21"/>
-      <c r="D258" s="22"/>
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
+      <c r="D258" s="15"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="B259" s="21"/>
-      <c r="C259" s="21"/>
-      <c r="D259" s="22"/>
+      <c r="B259" s="14"/>
+      <c r="C259" s="14"/>
+      <c r="D259" s="15"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="B260" s="21"/>
-      <c r="C260" s="21"/>
-      <c r="D260" s="22"/>
+      <c r="B260" s="14"/>
+      <c r="C260" s="14"/>
+      <c r="D260" s="15"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="B261" s="21"/>
-      <c r="C261" s="21"/>
-      <c r="D261" s="22"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="15"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="B262" s="21"/>
-      <c r="C262" s="21"/>
-      <c r="D262" s="22"/>
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="15"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="B263" s="21"/>
-      <c r="C263" s="21"/>
-      <c r="D263" s="22"/>
+      <c r="B263" s="14"/>
+      <c r="C263" s="14"/>
+      <c r="D263" s="15"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="B264" s="21"/>
-      <c r="C264" s="21"/>
-      <c r="D264" s="22"/>
+      <c r="B264" s="14"/>
+      <c r="C264" s="14"/>
+      <c r="D264" s="15"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="B265" s="21"/>
-      <c r="C265" s="21"/>
-      <c r="D265" s="22"/>
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="15"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="B266" s="21"/>
-      <c r="C266" s="21"/>
-      <c r="D266" s="22"/>
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="15"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="B267" s="21"/>
-      <c r="C267" s="21"/>
-      <c r="D267" s="22"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="15"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="B268" s="21"/>
-      <c r="C268" s="21"/>
-      <c r="D268" s="22"/>
+      <c r="B268" s="14"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="15"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="B269" s="21"/>
-      <c r="C269" s="21"/>
-      <c r="D269" s="22"/>
+      <c r="B269" s="14"/>
+      <c r="C269" s="14"/>
+      <c r="D269" s="15"/>
     </row>
     <row r="270" ht="15.75" customHeight="1"/>
     <row r="271" ht="15.75" customHeight="1"/>
@@ -5644,7 +5597,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
@@ -5700,7 +5653,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1">
@@ -5764,7 +5717,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
@@ -5772,7 +5725,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1">
@@ -5780,7 +5733,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1">
@@ -5788,7 +5741,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="1">
@@ -5804,7 +5757,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="1">
@@ -5820,7 +5773,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="1">
@@ -5828,7 +5781,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="1">
@@ -5836,7 +5789,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="1">
@@ -5844,7 +5797,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="1">
@@ -5860,7 +5813,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="1">
@@ -5868,7 +5821,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="1">
@@ -5876,7 +5829,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="1">
@@ -5884,7 +5837,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="1">
@@ -5972,7 +5925,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B48" s="1">
@@ -5988,7 +5941,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="1">
@@ -6020,7 +5973,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="1">
@@ -6028,7 +5981,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B55" s="1">
@@ -6036,7 +5989,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B56" s="1">
@@ -6044,7 +5997,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="1">
@@ -6052,7 +6005,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="1">
@@ -6108,7 +6061,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="1">
@@ -6116,7 +6069,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="1">
@@ -6124,7 +6077,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="1">
@@ -6132,7 +6085,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="1">
@@ -6148,7 +6101,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="1">
@@ -6172,7 +6125,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B73" s="1">
@@ -6180,7 +6133,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B74" s="1">
@@ -6212,7 +6165,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B78" s="1">
@@ -6236,7 +6189,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B81" s="1">
@@ -6252,7 +6205,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B83" s="1">
@@ -6260,7 +6213,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B84" s="1">
@@ -6268,7 +6221,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B85" s="1">
@@ -6276,7 +6229,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B86" s="1">
@@ -6284,7 +6237,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B87" s="1">
@@ -6292,7 +6245,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B88" s="1">
@@ -6300,7 +6253,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B89" s="1">
@@ -6308,7 +6261,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B90" s="1">
@@ -6316,7 +6269,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B91" s="1">
@@ -6324,7 +6277,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B92" s="1">
@@ -6332,7 +6285,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B93" s="1">
@@ -6340,7 +6293,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B94" s="1">
@@ -6348,7 +6301,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B95" s="1">
@@ -6356,7 +6309,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B96" s="1">
@@ -6364,7 +6317,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B97" s="1">
@@ -6372,7 +6325,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B98" s="1">
@@ -6380,7 +6333,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B99" s="1">
@@ -6388,7 +6341,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B100" s="1">
@@ -6396,7 +6349,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B101" s="1">
@@ -6404,7 +6357,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B102" s="1">
@@ -6412,7 +6365,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" s="23">
+      <c r="B103" s="8">
         <f>SUM(B2:B102)</f>
         <v>339</v>
       </c>
@@ -6437,18 +6390,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6459,7 +6412,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -6470,7 +6423,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -6481,7 +6434,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -6492,7 +6445,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="17" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -6503,8 +6456,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1">
@@ -6512,7 +6467,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="17" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -6523,7 +6478,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27"/>
+      <c r="A9" s="17" t="s">
+        <v>113</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6532,7 +6489,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -6543,7 +6500,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29"/>
+      <c r="A11" s="18" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
@@ -6552,7 +6511,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -6563,7 +6522,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -6574,8 +6533,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1">
@@ -6583,7 +6544,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="18" t="s">
         <v>117</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -6594,8 +6555,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="29"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="1">
@@ -6603,7 +6566,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="19" t="s">
         <v>118</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -6614,7 +6577,9 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="31"/>
+      <c r="A18" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>43</v>
       </c>
@@ -6623,7 +6588,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="31"/>
+      <c r="A19" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
@@ -6632,7 +6599,9 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="31"/>
+      <c r="A20" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
@@ -6641,7 +6610,9 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="31"/>
+      <c r="A21" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>50</v>
       </c>
@@ -6650,7 +6621,9 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="31"/>
+      <c r="A22" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>51</v>
       </c>
@@ -6659,8 +6632,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="31"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="1">
@@ -6668,8 +6643,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="31"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="1">
@@ -6677,8 +6654,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="1">
@@ -6686,8 +6665,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="31"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="1">
@@ -6695,18 +6676,20 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="30"/>
+      <c r="A27" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="1">
         <v>2.0</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="32"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="19" t="s">
         <v>119</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -6717,7 +6700,9 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="31"/>
+      <c r="A29" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>77</v>
       </c>
@@ -6726,8 +6711,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="31"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C30" s="1">
@@ -6735,7 +6722,9 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="31"/>
+      <c r="A31" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>81</v>
       </c>
@@ -6744,7 +6733,9 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="31"/>
+      <c r="A32" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="B32" s="5" t="s">
         <v>85</v>
       </c>
@@ -6753,8 +6744,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="31"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C33" s="1">
@@ -6762,8 +6755,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="31"/>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C34" s="1">
@@ -6771,8 +6766,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="31"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C35" s="1">
@@ -6780,8 +6777,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="31"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C36" s="1">
@@ -6789,8 +6788,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="31"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C37" s="1">
@@ -6798,8 +6799,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="31"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="1">
@@ -6807,8 +6810,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="31"/>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C39" s="1">
@@ -6816,8 +6821,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="31"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="1">
@@ -6825,8 +6832,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="31"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C41" s="1">
@@ -6834,8 +6843,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="31"/>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C42" s="1">
@@ -6843,8 +6854,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="31"/>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="1">
@@ -6852,7 +6865,9 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="31"/>
+      <c r="A44" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="B44" s="5" t="s">
         <v>80</v>
       </c>
@@ -6875,552 +6890,656 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="6.88"/>
-    <col customWidth="1" min="5" max="5" width="20.5"/>
+    <col customWidth="1" min="1" max="1" width="6.88"/>
+    <col customWidth="1" min="2" max="2" width="20.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="24" t="s">
+      <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1">
+      <c r="C2" s="1">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1">
+      <c r="C3" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="33"/>
-      <c r="E4" s="10" t="s">
+      <c r="A4" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1">
+      <c r="C4" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="33"/>
-      <c r="E5" s="5" t="s">
+      <c r="A5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1">
+      <c r="C5" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="26" t="s">
+      <c r="A6" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1">
+      <c r="C6" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="27"/>
-      <c r="E7" s="5" t="s">
+      <c r="A7" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1">
+      <c r="C7" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="27"/>
-      <c r="E8" s="5" t="s">
+      <c r="A8" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1">
+      <c r="C8" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="27"/>
-      <c r="E9" s="5" t="s">
+      <c r="A9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1">
+      <c r="C9" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="D10" s="27"/>
-      <c r="E10" s="10" t="s">
+      <c r="A10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1">
+      <c r="C10" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="27"/>
-      <c r="E11" s="10" t="s">
+      <c r="A11" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1">
+      <c r="C11" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="27"/>
-      <c r="E12" s="10" t="s">
+      <c r="A12" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="1">
+      <c r="C12" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="28" t="s">
+      <c r="A13" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="1">
+      <c r="C13" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="D14" s="29"/>
-      <c r="E14" s="10" t="s">
+      <c r="A14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="1">
+      <c r="C14" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="D15" s="29"/>
-      <c r="E15" s="5" t="s">
+      <c r="A15" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="1">
+      <c r="C15" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="29"/>
-      <c r="E16" s="10" t="s">
+      <c r="A16" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="1">
+      <c r="C16" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="29"/>
-      <c r="E17" s="10" t="s">
+      <c r="A17" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="1">
+      <c r="C17" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="D18" s="29"/>
-      <c r="E18" s="10" t="s">
+      <c r="A18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="1">
+      <c r="C18" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="D19" s="29"/>
-      <c r="E19" s="10" t="s">
+      <c r="A19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="1">
+      <c r="C19" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="D20" s="29"/>
-      <c r="E20" s="10" t="s">
+      <c r="A20" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="1">
+      <c r="C20" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="29"/>
-      <c r="E21" s="10" t="s">
+      <c r="A21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="1">
+      <c r="C21" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="34" t="s">
+      <c r="A22" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="1">
+      <c r="C22" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="35"/>
-      <c r="E23" s="5" t="s">
+      <c r="A23" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="1">
+      <c r="C23" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="D24" s="35"/>
-      <c r="E24" s="5" t="s">
+      <c r="A24" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="1">
+      <c r="C24" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="D25" s="35"/>
-      <c r="E25" s="5" t="s">
+      <c r="A25" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="1">
+      <c r="C25" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="35"/>
-      <c r="E26" s="10" t="s">
+      <c r="A26" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="1">
+      <c r="C26" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="35"/>
-      <c r="E27" s="5" t="s">
+      <c r="A27" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="1">
+      <c r="C27" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="D28" s="35"/>
-      <c r="E28" s="5" t="s">
+      <c r="A28" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="1">
+      <c r="C28" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="D29" s="35"/>
-      <c r="E29" s="5" t="s">
+      <c r="A29" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="1">
+      <c r="C29" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" s="35"/>
-      <c r="E30" s="5" t="s">
+      <c r="A30" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="1">
+      <c r="C30" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" s="35"/>
-      <c r="E31" s="10" t="s">
+      <c r="A31" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="1">
+      <c r="C31" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" s="35"/>
-      <c r="E32" s="10" t="s">
+      <c r="A32" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="1">
+      <c r="C32" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" s="30" t="s">
+      <c r="A33" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="1">
+      <c r="C33" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" s="31"/>
-      <c r="E34" s="5" t="s">
+      <c r="A34" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="1">
+      <c r="C34" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" s="31"/>
-      <c r="E35" s="5" t="s">
+      <c r="A35" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="1">
+      <c r="C35" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" s="31"/>
-      <c r="E36" s="5" t="s">
+      <c r="A36" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="1">
+      <c r="C36" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" s="31"/>
-      <c r="E37" s="5" t="s">
+      <c r="A37" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="1">
+      <c r="C37" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" s="31"/>
-      <c r="E38" s="5" t="s">
+      <c r="A38" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="1">
+      <c r="C38" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="D39" s="31"/>
-      <c r="E39" s="10" t="s">
+      <c r="A39" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="1">
+      <c r="C39" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="D40" s="31"/>
-      <c r="E40" s="10" t="s">
+      <c r="A40" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="1">
+      <c r="C40" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="D41" s="31"/>
-      <c r="E41" s="10" t="s">
+      <c r="A41" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="1">
+      <c r="C41" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="D42" s="31"/>
-      <c r="E42" s="10" t="s">
+      <c r="A42" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="1">
+      <c r="C42" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="D43" s="31"/>
-      <c r="E43" s="10" t="s">
+      <c r="A43" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="1">
+      <c r="C43" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="D44" s="31"/>
-      <c r="E44" s="5" t="s">
+      <c r="A44" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="1">
+      <c r="C44" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="D45" s="31"/>
-      <c r="E45" s="10" t="s">
+      <c r="A45" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="1">
+      <c r="C45" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="D46" s="31"/>
-      <c r="E46" s="5" t="s">
+      <c r="A46" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="1">
+      <c r="C46" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="D47" s="31"/>
-      <c r="E47" s="10" t="s">
+      <c r="A47" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="1">
+      <c r="C47" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="D48" s="31"/>
-      <c r="E48" s="5" t="s">
+      <c r="A48" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="1">
+      <c r="C48" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="D49" s="31"/>
-      <c r="E49" s="10" t="s">
+      <c r="A49" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="1">
+      <c r="C49" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="D50" s="31"/>
-      <c r="E50" s="5" t="s">
+      <c r="A50" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="1">
+      <c r="C50" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="D51" s="31"/>
-      <c r="E51" s="10" t="s">
+      <c r="A51" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="1">
+      <c r="C51" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="D52" s="31"/>
-      <c r="E52" s="10" t="s">
+      <c r="A52" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="1">
+      <c r="C52" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="D53" s="31"/>
-      <c r="E53" s="10" t="s">
+      <c r="A53" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="1">
+      <c r="C53" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="D54" s="31"/>
-      <c r="E54" s="10" t="s">
+      <c r="A54" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="1">
+      <c r="C54" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="D55" s="31"/>
-      <c r="E55" s="10" t="s">
+      <c r="A55" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="1">
+      <c r="C55" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="D56" s="31"/>
-      <c r="E56" s="10" t="s">
+      <c r="A56" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="1">
+      <c r="C56" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="D57" s="31"/>
-      <c r="E57" s="10" t="s">
+      <c r="A57" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F57" s="1">
+      <c r="C57" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="D58" s="31"/>
-      <c r="E58" s="10" t="s">
+      <c r="A58" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F58" s="1">
+      <c r="C58" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="D59" s="31"/>
-      <c r="E59" s="10" t="s">
+      <c r="A59" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="1">
+      <c r="C59" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -7444,24 +7563,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>12.0</v>
       </c>
     </row>
@@ -7469,7 +7588,7 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>11.0</v>
       </c>
     </row>
@@ -7477,7 +7596,7 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>8.0</v>
       </c>
     </row>
@@ -7485,7 +7604,7 @@
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -7493,37 +7612,37 @@
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="23"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="B10" s="23"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>4.0</v>
       </c>
     </row>
@@ -7531,15 +7650,15 @@
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>2.0</v>
       </c>
     </row>
@@ -7547,23 +7666,23 @@
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>2.0</v>
       </c>
     </row>
@@ -7571,31 +7690,31 @@
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <v>1.0</v>
       </c>
     </row>
